--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R8ac18cb1e4c643bd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="Rec44eda3787c43f7"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="Rec44eda3787c43f7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="Rbfa390fc8f4c4c6e"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -28,12 +28,12 @@
     <x:font>
       <x:b/>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
@@ -46,7 +46,7 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="4472C4"/>
+        <x:fgColor rgb="FF4472C4"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="Rbfa390fc8f4c4c6e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="Rfbe46ded519249e1"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="Rfbe46ded519249e1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R0e6937a1adc543fe"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R0e6937a1adc543fe"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="Raf990d1b384b485c"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="Raf990d1b384b485c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="Rcb0179dd4b014fce"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="Rcb0179dd4b014fce"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R176bd906701b42d0"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R176bd906701b42d0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="Rcb9c95aa26524843"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="Rcb9c95aa26524843"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="Rd09540ba354f4667"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="Rd09540ba354f4667"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R521d80e32ce047c6"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R521d80e32ce047c6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R53ab17223fd843c7"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R53ab17223fd843c7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R009135cf9b424a24"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R009135cf9b424a24"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="Rb2598be793fd4602"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="Rb2598be793fd4602"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="Rcbe61585fd6b4492"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="Rcbe61585fd6b4492"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R880d137b9396405c"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
@@ -5,8 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R880d137b9396405c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="Rb172230697d542a3"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="Rb172230697d542a3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="Rc4b87e4c32ae4a61"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="Rc4b87e4c32ae4a61"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R76f450b106b04180"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R76f450b106b04180"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R9a09bd1362e944d2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R9a09bd1362e944d2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R9dc2cbd1d7ae4057"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R9dc2cbd1d7ae4057"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R6b4cf54a497d4c59"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R6b4cf54a497d4c59"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R2e2119a9d4794063"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R2e2119a9d4794063"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R89af492e04f44b43"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R89af492e04f44b43"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R538d9a505d68438a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R538d9a505d68438a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R7a8ec8e3cfd742f3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R7a8ec8e3cfd742f3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R2200fa38f3224d9b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R2200fa38f3224d9b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R5da0bbb7ca9b4df7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R5da0bbb7ca9b4df7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R7fd5921164e74ba5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R7fd5921164e74ba5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="Rc6dd9e0870b6407f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="Rc6dd9e0870b6407f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="Rfcd753e6a2584866"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="Rfcd753e6a2584866"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R4d4e913c23504402"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R4d4e913c23504402"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="Rdd5407a452644cbc"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="Rdd5407a452644cbc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R1ff6f0c4f60f46a5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R1ff6f0c4f60f46a5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="Re1877fe897fa4946"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="Re1877fe897fa4946"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R31aaf1d110784b72"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R31aaf1d110784b72"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R9ad5f793e6c649f4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R9ad5f793e6c649f4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R2820aa3004b04e03"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R2820aa3004b04e03"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="Rf14a161faccd4fac"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="Rf14a161faccd4fac"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R3d6dc8d0af5f4265"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R3d6dc8d0af5f4265"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R241fd499774a4a98"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R241fd499774a4a98"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="Ra38a917710674f28"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="Ra38a917710674f28"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="Rc0b9f5b49cf24fc1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/32_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="Rc0b9f5b49cf24fc1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="Re5a240d3462248cb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
